--- a/API/API_List.xlsx
+++ b/API/API_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hacker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kalam_2020_backend\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B5DB73-C055-4760-83E0-1F535BEDC247}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D780D-5E3C-4393-B35C-4D0F47461FBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A7AEA42D-F176-477B-8EE9-94D6F6368AA6}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
       <color rgb="FF000000"/>
       <name val="Liberation Serif"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,11 +112,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -119,11 +131,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,7 +452,7 @@
   <dimension ref="C1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" activeCellId="1" sqref="G5:N5 G5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,78 +466,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="37.5">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="15.75">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="8" spans="3:14" ht="15.75">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="D11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
